--- a/test_rm/пример задания.xlsx
+++ b/test_rm/пример задания.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test_rm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD8598-9333-4EE3-8B8C-E18CCB9FDA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9C290-D63B-42E3-A405-08DF0FA406B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" activeTab="5" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" activeTab="3" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -1149,9 +1149,6 @@
     <t>Выборка файлов</t>
   </si>
   <si>
-    <t>#I:\rastr_add\test\импорт.rg2</t>
-  </si>
-  <si>
     <t>Параметры импорта из файлов RastrWin</t>
   </si>
   <si>
@@ -1485,9 +1482,6 @@
     <t>15511,15007</t>
   </si>
   <si>
-    <t>I:\rastr_add\test\файлы импорта\файл для импорта.rg2</t>
-  </si>
-  <si>
     <t>В ячейке А1 указать тип внесения изменений.</t>
   </si>
   <si>
@@ -1495,6 +1489,12 @@
   </si>
   <si>
     <t>na=11(node)</t>
+  </si>
+  <si>
+    <t>I:\rastr_add\test_rm\файлы импорта\файл для импорта.rg2</t>
+  </si>
+  <si>
+    <t>#I:\rastr_add\test_rm\импорт.rg2</t>
   </si>
 </sst>
 </file>
@@ -2131,20 +2131,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2565,29 +2565,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="75"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="73"/>
       <c r="P1" s="44" t="s">
         <v>28</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -2697,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>31</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>30</v>
@@ -2969,172 +2969,167 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
+      <c r="A23" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -3143,6 +3138,11 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,27 +3179,27 @@
       </c>
       <c r="D1" s="77"/>
       <c r="E1" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="78"/>
       <c r="G1" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="78"/>
       <c r="I1" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="81"/>
       <c r="K1" s="80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="81"/>
       <c r="M1" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N1" s="81"/>
       <c r="O1" s="80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="81"/>
       <c r="Q1" s="78" t="s">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="R1" s="78"/>
       <c r="S1" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T1" s="79"/>
     </row>
@@ -3274,7 +3274,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="45">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S3" s="45">
         <v>2</v>
@@ -3349,7 +3349,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="45">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S4" s="45">
         <v>2</v>
@@ -3424,7 +3424,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="45">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="45">
         <v>4</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="45">
         <v>5</v>
@@ -3637,7 +3637,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="45">
         <v>0</v>
@@ -3720,28 +3720,28 @@
         <v>17</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="45">
         <v>600</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="45">
         <v>3600</v>
@@ -3854,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -3879,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522799A2-A779-46B0-B300-7723A770F85C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,7 +3896,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -3940,13 +3940,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="13">
@@ -3965,10 +3965,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>42</v>
@@ -4030,7 +4030,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -4044,13 +4044,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>38</v>
@@ -4065,147 +4065,147 @@
         <v>41</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="15">
         <v>2026</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>2</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -4221,30 +4221,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="15">
         <v>2026</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="G17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4278,7 +4278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4526B1F2-E2A1-4946-8132-EDB9710520AC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -4289,21 +4289,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4485,48 +4485,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="I1" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>146</v>
-      </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>154</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
@@ -4536,16 +4536,16 @@
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>154</v>
       </c>
       <c r="D3" s="66" t="s">
         <v>5</v>
@@ -4560,10 +4560,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>5</v>
@@ -4590,19 +4590,19 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>5</v>
@@ -4614,7 +4614,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="70">
         <v>15177</v>
@@ -4632,7 +4632,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>9</v>
@@ -4653,19 +4653,19 @@
       <c r="C9" s="68"/>
       <c r="D9" s="66"/>
       <c r="E9" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="68" t="s">
         <v>5</v>
@@ -4674,63 +4674,63 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="I10" s="68" t="s">
         <v>151</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>152</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
         <v>153</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>154</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>155</v>
-      </c>
-      <c r="I11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
         <v>153</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
         <v>155</v>
-      </c>
-      <c r="I12" t="s">
-        <v>156</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -4738,19 +4738,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
         <v>153</v>
-      </c>
-      <c r="F13" t="s">
-        <v>154</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>155</v>
-      </c>
-      <c r="I13" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/test_rm/пример задания.xlsx
+++ b/test_rm/пример задания.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test_rm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9C290-D63B-42E3-A405-08DF0FA406B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD53FC5-3211-4CCD-8237-F0E0DD8124E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" activeTab="3" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="883" activeTab="6" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
   <si>
     <t>pn</t>
   </si>
@@ -1338,9 +1338,6 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Отключение</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>Схема при отключении</t>
   </si>
   <si>
-    <t>- в статусе: режим исключается</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Уренгойская ГРЭС - Тарко-Сале</t>
   </si>
   <si>
@@ -1392,9 +1386,6 @@
     <t>#20,21</t>
   </si>
   <si>
-    <t xml:space="preserve"> после # текст не учитывается</t>
-  </si>
-  <si>
     <t>Примечание</t>
   </si>
   <si>
@@ -1495,6 +1486,18 @@
   </si>
   <si>
     <t>#I:\rastr_add\test_rm\импорт.rg2</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># в статусе: режим исключается.</t>
+  </si>
+  <si>
+    <t>После # текст не учитывается.</t>
+  </si>
+  <si>
+    <t>Выборка в формате: {years: 2026&amp; season:лет&amp; max_min:мин&amp; add_name:0°C&amp; (ny=2:vras&gt;525.5)}.</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1892,33 +1895,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -1927,7 +1930,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1935,9 +1940,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1948,6 +1951,86 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1961,7 +2044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2102,35 +2185,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2139,12 +2238,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2565,29 +2658,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="73"/>
+      <c r="O1" s="81"/>
       <c r="P1" s="44" t="s">
         <v>28</v>
       </c>
@@ -2680,10 +2773,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -2924,7 +3017,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>31</v>
@@ -2969,167 +3062,172 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
+      <c r="A17" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
+      <c r="A21" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
+      <c r="A23" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -3138,11 +3236,6 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3174,42 +3267,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="80" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="80" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="80" t="s">
+      <c r="L1" s="87"/>
+      <c r="M1" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="80" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="78" t="s">
+      <c r="P1" s="87"/>
+      <c r="Q1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79" t="s">
+      <c r="R1" s="84"/>
+      <c r="S1" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="79"/>
+      <c r="T1" s="85"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3879,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522799A2-A779-46B0-B300-7723A770F85C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,19 +3988,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="82" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3940,13 +4033,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="13">
@@ -3965,10 +4058,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>42</v>
@@ -4029,18 +4122,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -4065,7 +4158,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4076,7 +4169,7 @@
         <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4084,7 +4177,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,7 +4191,7 @@
         <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,7 +4237,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>60</v>
@@ -4213,7 +4306,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -4289,21 +4382,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4317,7 +4410,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4462,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,53 +4573,57 @@
     <col min="8" max="8" width="43.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="60" t="s">
+      <c r="I1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
@@ -4535,222 +4632,234 @@
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="77"/>
+      <c r="L3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67" t="s">
+      <c r="C6" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="63">
+        <v>15177</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="77"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="77"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="68" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="70">
-        <v>15177</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="68" t="s">
+      <c r="F12" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="68"/>
-      <c r="K10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/test_rm/пример задания.xlsx
+++ b/test_rm/пример задания.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test_rm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add2\test_rm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD53FC5-3211-4CCD-8237-F0E0DD8124E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506902B-DBB7-44A3-AF7D-DD04A887A39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="883" activeTab="6" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="883" activeTab="3" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -1482,12 +1482,6 @@
     <t>na=11(node)</t>
   </si>
   <si>
-    <t>I:\rastr_add\test_rm\файлы импорта\файл для импорта.rg2</t>
-  </si>
-  <si>
-    <t>#I:\rastr_add\test_rm\импорт.rg2</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1498,6 +1492,12 @@
   </si>
   <si>
     <t>Выборка в формате: {years: 2026&amp; season:лет&amp; max_min:мин&amp; add_name:0°C&amp; (ny=2:vras&gt;525.5)}.</t>
+  </si>
+  <si>
+    <t>I:\rastr_add2\test_rm\файлы импорта\файл для импорта.rg2</t>
+  </si>
+  <si>
+    <t>#I:\rastr_add2\test_rm\импорт.rg2</t>
   </si>
 </sst>
 </file>
@@ -3972,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522799A2-A779-46B0-B300-7723A770F85C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>47</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>133</v>
@@ -4557,7 +4557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>149</v>
@@ -4634,7 +4634,7 @@
       <c r="J2" s="68"/>
       <c r="K2" s="77"/>
       <c r="L2" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="77"/>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,7 +4678,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="77"/>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
